--- a/1 task.xlsx
+++ b/1 task.xlsx
@@ -53,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +69,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +109,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +149,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +181,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +331,510 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1991</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>196.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>214.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>223.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>208.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>204.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>213.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>221.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>215.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>181.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>203.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1992</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>189.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>185.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>170.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>169.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>170.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>180.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1993</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>141.80000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>170.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>164.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>160.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>151.69999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>154.80000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>147.80000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>149.69999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1994</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>123.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>128.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>108.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>114.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1995</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>95.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1 task.xlsx
+++ b/1 task.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -16,6 +19,98 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>tay=</t>
+  </si>
+  <si>
+    <t>m=</t>
+  </si>
+  <si>
+    <t>n=</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t>h=</t>
+  </si>
+  <si>
+    <t>y_cp=</t>
+  </si>
+  <si>
+    <t>1 метод</t>
+  </si>
+  <si>
+    <t>2 метод</t>
+  </si>
+  <si>
+    <t>сезонная состовляющая</t>
+  </si>
+  <si>
+    <t>y*_t</t>
+  </si>
+  <si>
+    <t>y_(1+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(2+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(3+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(4+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(5+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(6+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(7+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(8+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(9+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(10+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(11+tay_j)=</t>
+  </si>
+  <si>
+    <t>y_(12+tay_j)=</t>
+  </si>
+  <si>
+    <t>k_i</t>
+  </si>
+  <si>
+    <t>tay_i</t>
+  </si>
+  <si>
+    <t>y_i cp</t>
+  </si>
+  <si>
+    <t>S0</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>p(tay_i)</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -66,6 +161,236 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="O6">
+            <v>-7.6833333333333371</v>
+          </cell>
+          <cell r="P6">
+            <v>-1.3593749999999964</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="O7">
+            <v>9.6166666666666458</v>
+          </cell>
+          <cell r="P7">
+            <v>3.6093750000000036</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="O8">
+            <v>15.696666666666658</v>
+          </cell>
+          <cell r="P8">
+            <v>4.7468749999999851</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="O9">
+            <v>3.936666666666639</v>
+          </cell>
+          <cell r="P9">
+            <v>1.4708333333333385</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="O10">
+            <v>-2.5033333333333587</v>
+          </cell>
+          <cell r="P10">
+            <v>-2.6885416666666835</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="O11">
+            <v>-1.1233333333333348</v>
+          </cell>
+          <cell r="P11">
+            <v>7.1291666666666558</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="O12">
+            <v>-1.7233333333333576</v>
+          </cell>
+          <cell r="P12">
+            <v>-8.4677083333333343</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="O13">
+            <v>1.6966666666666583</v>
+          </cell>
+          <cell r="P13">
+            <v>-6.7749999999999844</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="O14">
+            <v>1.3166666666666345</v>
+          </cell>
+          <cell r="P14">
+            <v>5.7270833333333293</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="O15">
+            <v>-6.7833333333333314</v>
+          </cell>
+          <cell r="P15">
+            <v>3.5854166666666742</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="O16">
+            <v>-9.8433333333333621</v>
+          </cell>
+          <cell r="P16">
+            <v>-4.9499999999999993</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="O17">
+            <v>-2.6033333333333246</v>
+          </cell>
+          <cell r="P17">
+            <v>-4.2322916666666579</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="L36">
+            <v>142.74</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="L37">
+            <v>160.04</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="L38">
+            <v>166.12</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="L39">
+            <v>154.35999999999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="L40">
+            <v>147.91999999999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="L41">
+            <v>149.30000000000001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="L42">
+            <v>148.69999999999999</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="L43">
+            <v>152.12</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="L44">
+            <v>151.73999999999998</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="L45">
+            <v>143.64000000000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="L46">
+            <v>140.57999999999998</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="L47">
+            <v>147.82000000000002</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="L54">
+            <v>150.94620060006196</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="L55">
+            <v>153.7286556499775</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="L56">
+            <v>155.62545225442364</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="L57">
+            <v>156.128345295033</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="L58">
+            <v>155.10258498769502</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="L59">
+            <v>152.82302297838885</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="L60">
+            <v>149.90046606660474</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="L61">
+            <v>147.1180110166892</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="L62">
+            <v>145.22121441224306</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="L63">
+            <v>144.71832137163369</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="L64">
+            <v>145.74408167897167</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="L65">
+            <v>148.02364368827784</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,15 +656,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1991</v>
       </c>
@@ -349,96 +674,372 @@
       <c r="C1">
         <v>196.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <f>0.5*C1</f>
+        <v>98.25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <f>M1/2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2">
         <v>214.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f t="shared" ref="F2:F48" si="0">0.5*C2</f>
+        <v>107.25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
         <v>223.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>111.8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <f>M2/M1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
         <v>208.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>104.45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f>SUM(C1:C60)/M2</f>
+        <v>150.42333333333335</v>
+      </c>
+      <c r="O4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>5</v>
       </c>
       <c r="C5">
         <v>206</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
         <v>204.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>102.25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M17" si="1">(C1+C13+C25+C37+C49)/M$3</f>
+        <v>142.74</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O17" si="2">M6-M$4</f>
+        <v>-7.6833333333333371</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P17" si="3">(SUM(I7)+SUM(I18)+SUM(I31)+SUM(I42))/(M$3-1)</f>
+        <v>-1.3593749999999964</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>7</v>
       </c>
       <c r="C7">
         <v>213.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>SUM(C2:C12)</f>
+        <v>2289.8999999999996</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>106.55</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H54" si="4">(E7+F1+G13)/M$1</f>
+        <v>206.06249999999997</v>
+      </c>
+      <c r="I7">
+        <f>C7-H7</f>
+        <v>7.0375000000000227</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>160.04</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>9.6166666666666458</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>3.6093750000000036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8">
         <v>221.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" ref="E8:E53" si="5">SUM(C3:C13)</f>
+        <v>2244.6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>110.7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>203.875</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I60" si="6">C8-H8</f>
+        <v>17.525000000000006</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>166.12</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>15.696666666666658</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>4.7468749999999851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9">
         <v>215.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>2210.3000000000002</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>107.85</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>201.75833333333335</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="6"/>
+        <v>13.941666666666634</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>154.35999999999999</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>3.936666666666639</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.4708333333333385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10">
         <v>196.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>2199.4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>98.4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>199.72916666666666</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>-2.9291666666666458</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>147.91999999999999</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>-2.5033333333333587</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>-2.6885416666666835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11</v>
       </c>
       <c r="C11">
         <v>181.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="5"/>
+        <v>2179.2000000000003</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>90.85</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>197.28750000000002</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="6"/>
+        <v>-15.587500000000034</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>149.30000000000001</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>-1.1233333333333348</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>7.1291666666666558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12">
         <v>203.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>2145.1999999999998</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>101.85</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>194.35833333333332</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="6"/>
+        <v>9.3416666666666686</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>148.69999999999999</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>-1.7233333333333576</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>-8.4677083333333343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1992</v>
       </c>
@@ -448,96 +1049,447 @@
       <c r="C13">
         <v>169.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="5"/>
+        <v>2101.8000000000002</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>84.6</v>
+      </c>
+      <c r="G13">
+        <f>0.5*C13</f>
+        <v>84.6</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>191.28750000000002</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="6"/>
+        <v>-22.087500000000034</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>152.12</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>1.6966666666666583</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>-6.7749999999999844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
         <v>189.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" si="5"/>
+        <v>2054.6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>94.65</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:G60" si="7">0.5*C14</f>
+        <v>94.65</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>187.43749999999997</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="6"/>
+        <v>1.8625000000000398</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>151.73999999999998</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1.3166666666666345</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>5.7270833333333293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15">
         <v>198</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>2006.8000000000002</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>183.32916666666668</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="6"/>
+        <v>14.67083333333332</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>143.64000000000001</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>-6.7833333333333314</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>3.5854166666666742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
         <v>185.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="5"/>
+        <v>1980.6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>92.9</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>92.9</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>180.14583333333334</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>5.6541666666666686</v>
+      </c>
+      <c r="L16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>140.57999999999998</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>-9.8433333333333621</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>-4.9499999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17">
         <v>170.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>1964.4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>85.25</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>85.25</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>178.02083333333334</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="6"/>
+        <v>-7.5208333333333428</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>-2.6033333333333246</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>-4.2322916666666579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
         <v>169.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="5"/>
+        <v>1922.7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>84.85</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>84.85</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>176.24583333333331</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>-6.5458333333333201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19">
         <v>174.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="5"/>
+        <v>1934.3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>87.1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>87.1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>174.14999999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>8</v>
       </c>
       <c r="C20">
         <v>167.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>1886.8</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>83.95</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>83.95</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>172.23333333333335</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>-4.3333333333333428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>9</v>
       </c>
       <c r="C21">
         <v>170.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>1859.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>85.3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>85.3</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>170.6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22">
         <v>165.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>1851.1000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>82.75</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>82.75</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>168.84583333333336</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>-3.3458333333333599</v>
+      </c>
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11</v>
       </c>
       <c r="C23">
         <v>162</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>1844.9</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>167.17500000000001</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>-5.1750000000000114</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <v>6</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>8</v>
+      </c>
+      <c r="AA23">
+        <v>9</v>
+      </c>
+      <c r="AB23">
+        <v>10</v>
+      </c>
+      <c r="AC23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>12</v>
       </c>
       <c r="C24">
         <v>180.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>1827.1000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>90.4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>90.4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>166.02083333333334</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>14.779166666666669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -547,96 +1499,393 @@
       <c r="C25">
         <v>141.80000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>1813.5</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>70.900000000000006</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>164.70416666666665</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>-22.90416666666664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26">
         <v>170.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>1797.3000000000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>85.35</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>85.35</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>163.22083333333336</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>7.4791666666666288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
         <v>177.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>1781.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>88.7</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>88.7</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>161.97916666666666</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>15.420833333333348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
         <v>164.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>1769.9</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>82.15</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>82.15</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>160.54583333333335</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>3.7541666666666629</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
         <v>151.9</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>1755.7</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>75.95</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>75.95</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>159.125</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>-7.2249999999999943</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
         <v>160.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="5"/>
+        <v>1720.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>80.3</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>80.3</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>157.14583333333334</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>3.4541666666666515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7</v>
       </c>
       <c r="C31">
         <v>151.69999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" si="5"/>
+        <v>1728.4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>75.849999999999994</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>75.849999999999994</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>154.19583333333335</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>-2.4958333333333655</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32">
         <v>154.80000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" si="5"/>
+        <v>1659.8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>150.58750000000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>4.2125000000000057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9</v>
       </c>
       <c r="C33">
         <v>153.9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>1606.1999999999998</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>76.95</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>76.95</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>146.6</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>7.3000000000000114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34">
         <v>147.80000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" si="5"/>
+        <v>1570.4999999999998</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>73.900000000000006</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>142.54583333333332</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>5.2541666666666913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>11</v>
       </c>
       <c r="C35">
         <v>145.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" si="5"/>
+        <v>1534.3999999999996</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>72.8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>72.8</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>138.72916666666666</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>6.8708333333333371</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>12</v>
       </c>
       <c r="C36">
         <v>149.69999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" si="5"/>
+        <v>1482.6</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>74.849999999999994</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>74.849999999999994</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>134.90833333333333</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>14.791666666666657</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f>(C1+C13+C25+C37+C49)/M$3</f>
+        <v>142.74</v>
+      </c>
+      <c r="M36">
+        <f>$L36*COS(PI()*$K36/6*S$23)</f>
+        <v>123.61646613619079</v>
+      </c>
+      <c r="N36">
+        <f>$L36*SIN(PI()*$K36/6*S$23)</f>
+        <v>71.36999999999999</v>
+      </c>
+      <c r="O36">
+        <f t="shared" ref="O36:U47" si="8">$L36*COS(PI()*$K36/6*U$23)</f>
+        <v>8.7438845226828216E-15</v>
+      </c>
+      <c r="P36">
+        <f>$L36*SIN(PI()*$K36/6*V$23)</f>
+        <v>123.61646613619079</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>-123.61646613619075</v>
+      </c>
+      <c r="R36">
+        <f>$L36*SIN(PI()*$K36/6*X$23)</f>
+        <v>1.7487769045365643E-14</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="8"/>
+        <v>-123.61646613619081</v>
+      </c>
+      <c r="T36">
+        <f>$L36*SIN(PI()*$K36/6*Z$23)</f>
+        <v>-123.61646613619074</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="8"/>
+        <v>-2.6231653568048465E-14</v>
+      </c>
+      <c r="V36">
+        <f>$L36*SIN(PI()*$K36/6*AB$23)</f>
+        <v>-123.61646613619084</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ref="W36:W47" si="9">$L36*COS(PI()*$K36/6*AC$23)</f>
+        <v>123.61646613619074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1994</v>
       </c>
@@ -646,96 +1895,945 @@
       <c r="C37">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" si="5"/>
+        <v>1442.8999999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>51.05</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>51.05</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>130.99999999999997</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>-28.899999999999977</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" ref="L37:L47" si="10">(C2+C14+C26+C38+C50)/M$3</f>
+        <v>160.04</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37:M47" si="11">$L37*COS(PI()*$K37/6*S$23)</f>
+        <v>80.02000000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:N47" si="12">$L37*SIN(PI()*$K37/6*S$23)</f>
+        <v>138.59870562166154</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="8"/>
+        <v>-160.04</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:P47" si="13">$L37*SIN(PI()*$K37/6*V$23)</f>
+        <v>-138.59870562166151</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>80.019999999999882</v>
+      </c>
+      <c r="R37">
+        <f t="shared" ref="R37:R47" si="14">$L37*SIN(PI()*$K37/6*X$23)</f>
+        <v>-3.9214551744715106E-14</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="8"/>
+        <v>80.020000000000081</v>
+      </c>
+      <c r="T37">
+        <f t="shared" ref="T37:T47" si="15">$L37*SIN(PI()*$K37/6*Z$23)</f>
+        <v>138.59870562166162</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="8"/>
+        <v>-160.04</v>
+      </c>
+      <c r="V37">
+        <f t="shared" ref="V37:V47" si="16">$L37*SIN(PI()*$K37/6*AB$23)</f>
+        <v>-138.59870562166142</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="9"/>
+        <v>80.019999999999854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38">
         <v>123.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" si="5"/>
+        <v>1394.6</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>61.9</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>61.9</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>127.46249999999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>-3.6624999999999943</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>166.12</v>
+      </c>
+      <c r="M38">
+        <f>$L38*COS(PI()*$K38/6*S$23)</f>
+        <v>1.0176083066470998E-14</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="12"/>
+        <v>166.12</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="8"/>
+        <v>-3.0528249199412996E-14</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="13"/>
+        <v>-4.0704332265883992E-14</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="8"/>
+        <v>5.0880415332354989E-14</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="14"/>
+        <v>6.1056498398825992E-14</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="8"/>
+        <v>-7.1232581465296982E-14</v>
+      </c>
+      <c r="T38">
+        <f>$L38*SIN(PI()*$K38/6*Z$23)</f>
+        <v>-8.1408664531767985E-14</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="8"/>
+        <v>9.1584747598238988E-14</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="16"/>
+        <v>1.0176083066470998E-13</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="9"/>
+        <v>-4.0702531189235057E-13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
         <v>128.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" si="5"/>
+        <v>1355.7999999999997</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>64.3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="7"/>
+        <v>64.3</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>124.17083333333331</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>4.4291666666666885</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>154.35999999999999</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="11"/>
+        <v>-77.179999999999964</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="12"/>
+        <v>133.67968132816594</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="8"/>
+        <v>154.35999999999999</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="13"/>
+        <v>133.67968132816603</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>-77.180000000000192</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="14"/>
+        <v>-7.5645566199877829E-14</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="8"/>
+        <v>-77.179999999999836</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="15"/>
+        <v>-133.6796813281658</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="8"/>
+        <v>154.35999999999999</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="16"/>
+        <v>133.6796813281662</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="9"/>
+        <v>-77.180000000000263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" si="5"/>
+        <v>1322.5999999999997</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>57.9</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="7"/>
+        <v>57.9</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>120.97916666666664</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="6"/>
+        <v>-5.1791666666666458</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>147.91999999999999</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="11"/>
+        <v>-128.10247772779417</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="12"/>
+        <v>73.95999999999998</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="8"/>
+        <v>4.5305989862520762E-14</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="13"/>
+        <v>-128.10247772779417</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>128.10247772779411</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="14"/>
+        <v>9.0611979725041523E-14</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="8"/>
+        <v>128.10247772779414</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="15"/>
+        <v>128.10247772779414</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="8"/>
+        <v>1.2684073409652272E-13</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="16"/>
+        <v>128.10247772779425</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="9"/>
+        <v>-128.10247772779402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41">
         <v>108.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" si="5"/>
+        <v>1287.4999999999998</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>54.4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="7"/>
+        <v>54.4</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>118.26249999999997</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="6"/>
+        <v>-9.4624999999999773</v>
+      </c>
+      <c r="K41">
+        <v>6</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>149.30000000000001</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="11"/>
+        <v>-149.30000000000001</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="12"/>
+        <v>1.8291466431785697E-14</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="8"/>
+        <v>-149.30000000000001</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="13"/>
+        <v>-7.3165865727142787E-14</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>-149.30000000000001</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="14"/>
+        <v>-1.0974879859071419E-13</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="8"/>
+        <v>-149.30000000000001</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="15"/>
+        <v>-1.4633173145428557E-13</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="8"/>
+        <v>-149.30000000000001</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="16"/>
+        <v>-1.8291466431785699E-13</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="9"/>
+        <v>-149.30000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" si="5"/>
+        <v>1255.5</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>115.43333333333332</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="6"/>
+        <v>-3.4333333333333229</v>
+      </c>
+      <c r="K42">
+        <v>7</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="10"/>
+        <v>148.69999999999999</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="11"/>
+        <v>-128.77797754274604</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="12"/>
+        <v>-74.349999999999952</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="8"/>
+        <v>-6.3762851335719128E-14</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="13"/>
+        <v>128.7779775427461</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>128.77797754274602</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="14"/>
+        <v>1.2752570267143826E-13</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="8"/>
+        <v>128.77797754274613</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="15"/>
+        <v>-128.77797754274584</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="8"/>
+        <v>-7.2855708011659851E-14</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="16"/>
+        <v>-128.77797754274604</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="9"/>
+        <v>-128.77797754274593</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>7</v>
       </c>
       <c r="C43">
         <v>106.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" si="5"/>
+        <v>1263.1000000000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>53.25</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="7"/>
+        <v>53.25</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>113.85000000000001</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="6"/>
+        <v>-7.3500000000000085</v>
+      </c>
+      <c r="K43">
+        <v>8</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="10"/>
+        <v>152.12</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="11"/>
+        <v>-76.060000000000073</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="12"/>
+        <v>-131.73978442368877</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="8"/>
+        <v>152.12</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="13"/>
+        <v>-131.73978442368866</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>-76.059999999999576</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="14"/>
+        <v>-1.4909566636855943E-13</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="8"/>
+        <v>-76.060000000000301</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="15"/>
+        <v>131.73978442368909</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="8"/>
+        <v>152.12</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="16"/>
+        <v>-131.73978442368832</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="9"/>
+        <v>-76.059999999999448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>8</v>
       </c>
       <c r="C44">
         <v>115.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" si="5"/>
+        <v>1243.4000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>57.55</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="7"/>
+        <v>57.55</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>113.02083333333336</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="6"/>
+        <v>2.0791666666666373</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="10"/>
+        <v>151.73999999999998</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="11"/>
+        <v>-2.7885603982175096E-14</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="12"/>
+        <v>-151.73999999999998</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="8"/>
+        <v>8.365681194652529E-14</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="13"/>
+        <v>-1.1154241592870038E-13</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>-4.0897240672146947E-13</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="14"/>
+        <v>1.6731362389305058E-13</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="8"/>
+        <v>-7.4345158935368299E-14</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="15"/>
+        <v>-2.2308483185740077E-13</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="8"/>
+        <v>-5.2051482265016984E-13</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="16"/>
+        <v>8.1794481344293894E-13</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="9"/>
+        <v>3.719725699333209E-14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>9</v>
       </c>
       <c r="C45">
         <v>114.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>1216.7000000000003</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>57.3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="7"/>
+        <v>57.3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>111.04166666666669</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="6"/>
+        <v>3.5583333333333087</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="10"/>
+        <v>143.64000000000001</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="11"/>
+        <v>71.820000000000022</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="12"/>
+        <v>-124.39588899959678</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="8"/>
+        <v>-143.64000000000001</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="13"/>
+        <v>124.39588899959676</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>71.819999999999837</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="14"/>
+        <v>-1.759803240630742E-13</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="8"/>
+        <v>71.819999999999979</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="15"/>
+        <v>-124.39588899959683</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="8"/>
+        <v>-143.64000000000001</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="16"/>
+        <v>124.39588899959658</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="9"/>
+        <v>71.819999999999553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>10</v>
       </c>
       <c r="C46">
         <v>110.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" si="5"/>
+        <v>1203.9000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>55.25</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="7"/>
+        <v>55.25</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>109.19166666666668</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>1.3083333333333229</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="10"/>
+        <v>140.57999999999998</v>
+      </c>
+      <c r="M46">
+        <f>$L46*COS(PI()*$K46/6*S$23)</f>
+        <v>121.74585126401634</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="12"/>
+        <v>-70.290000000000049</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="8"/>
+        <v>-3.4444749786796674E-13</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="13"/>
+        <v>-121.74585126401622</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>-121.74585126401649</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="14"/>
+        <v>6.8889499573593348E-13</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="8"/>
+        <v>-121.7458512640163</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="15"/>
+        <v>121.74585126401666</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="8"/>
+        <v>1.0333424936039004E-12</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="16"/>
+        <v>121.74585126401612</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="9"/>
+        <v>121.74585126401684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>11</v>
       </c>
       <c r="C47">
         <v>117.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" si="5"/>
+        <v>1192.1000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>58.85</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>58.85</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>108.14166666666669</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>9.5583333333333087</v>
+      </c>
+      <c r="K47">
+        <v>12</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="10"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="11"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="12"/>
+        <v>-3.622028892091845E-14</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="8"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="13"/>
+        <v>-1.448811556836738E-13</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="14"/>
+        <v>-2.1732173352551067E-13</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="8"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="15"/>
+        <v>-2.897623113673476E-13</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="8"/>
+        <v>147.82000000000002</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="16"/>
+        <v>-3.6220288920918447E-13</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="9"/>
+        <v>147.82000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>12</v>
       </c>
       <c r="C48">
         <v>109.7</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" si="5"/>
+        <v>1182.5</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>54.85</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>54.85</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>107.3625</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="6"/>
+        <v>2.3375000000000057</v>
+      </c>
+      <c r="L48">
+        <f>SUM(L36:L47)/12</f>
+        <v>150.42333333333335</v>
+      </c>
+      <c r="M48">
+        <f>SUM(M36:M47)/6</f>
+        <v>-2.3996896450555076</v>
+      </c>
+      <c r="N48">
+        <f t="shared" ref="N48:W48" si="17">SUM(N36:N47)/6</f>
+        <v>5.2021189210902996</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="17"/>
+        <v>0.21999999999995148</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="17"/>
+        <v>-1.6194675050768748</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="17"/>
+        <v>1.4396896450554142</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="17"/>
+        <v>6.4313988162867346E-14</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="17"/>
+        <v>1.4396896450554901</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="17"/>
+        <v>1.6194675050769254</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="17"/>
+        <v>0.22000000000009834</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="17"/>
+        <v>-2.4681724007855137</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="17"/>
+        <v>-2.3996896450555076</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -745,93 +2843,369 @@
       <c r="C49">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" si="5"/>
+        <v>1175.7</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="7"/>
+        <v>52.05</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>106.49583333333334</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="6"/>
+        <v>-2.3958333333333428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50">
         <v>101.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" si="5"/>
+        <v>1158.5999999999999</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="7"/>
+        <v>50.95</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>105.57083333333333</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="6"/>
+        <v>-3.6708333333333201</v>
+      </c>
+      <c r="L50" t="s">
+        <v>25</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
       <c r="C51">
         <v>103</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" si="5"/>
+        <v>1145.4000000000001</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="7"/>
+        <v>51.5</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>104.55416666666667</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="6"/>
+        <v>-1.5541666666666742</v>
+      </c>
+      <c r="L51">
+        <f>L48^2</f>
+        <v>22627.179211111114</v>
+      </c>
+      <c r="M51">
+        <f>M48^2+N48^2</f>
+        <v>32.820551661752333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
       <c r="C52">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" si="5"/>
+        <v>1138.8000000000002</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>48.5</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>103.57083333333334</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="6"/>
+        <v>-6.57083333333334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5</v>
       </c>
       <c r="C53">
         <v>102.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" si="5"/>
+        <v>1118.7</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="7"/>
+        <v>51.2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>102.125</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="6"/>
+        <v>0.27500000000000568</v>
+      </c>
+      <c r="L53" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f>SUM(C49:C59)</f>
+        <v>1104.9000000000001</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="7"/>
+        <v>49.85</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>100.6125</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="6"/>
+        <v>-0.91249999999999432</v>
+      </c>
+      <c r="L54">
+        <f>L$48+M$48*COS(PI()/6*K36)+N$48*SIN(PI()/6*K36)</f>
+        <v>150.94620060006196</v>
+      </c>
+      <c r="M54">
+        <f>L36-L54</f>
+        <v>-8.2062006000619476</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7</v>
       </c>
       <c r="C55">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+      <c r="L55">
+        <f t="shared" ref="L55:L65" si="18">L$48+M$48*COS(PI()/6*K37)+N$48*SIN(PI()/6*K37)</f>
+        <v>153.7286556499775</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55:M65" si="19">L37-L55</f>
+        <v>6.3113443500224946</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>8</v>
       </c>
       <c r="C56">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="7"/>
+        <v>50.7</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="6"/>
+        <v>101.4</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="18"/>
+        <v>155.62545225442364</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="19"/>
+        <v>10.494547745576369</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9</v>
       </c>
       <c r="C57">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="7"/>
+        <v>51.95</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="6"/>
+        <v>103.9</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="18"/>
+        <v>156.128345295033</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="19"/>
+        <v>-1.768345295033015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>10</v>
       </c>
       <c r="C58">
         <v>97.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="7"/>
+        <v>48.8</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="6"/>
+        <v>97.6</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="18"/>
+        <v>155.10258498769502</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="19"/>
+        <v>-7.1825849876950372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>11</v>
       </c>
       <c r="C59">
         <v>95.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>47.95</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="6"/>
+        <v>95.9</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="18"/>
+        <v>152.82302297838885</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="19"/>
+        <v>-3.5230229783888376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>12</v>
       </c>
       <c r="C60">
         <v>95.2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="7"/>
+        <v>47.6</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="6"/>
+        <v>95.2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="18"/>
+        <v>149.90046606660474</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="19"/>
+        <v>-1.2004660666047471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="18"/>
+        <v>147.1180110166892</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="19"/>
+        <v>5.0019889833108095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="18"/>
+        <v>145.22121441224306</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="19"/>
+        <v>6.5187855877569234</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="18"/>
+        <v>144.71832137163369</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="19"/>
+        <v>-1.0783213716336775</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="18"/>
+        <v>145.74408167897167</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="19"/>
+        <v>-5.1640816789716837</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="18"/>
+        <v>148.02364368827784</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="19"/>
+        <v>-0.20364368827782187</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <f>SUM(M54:M65)/12</f>
+        <v>-1.4210854715202004E-14</v>
       </c>
     </row>
   </sheetData>

--- a/1 task.xlsx
+++ b/1 task.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -161,236 +158,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="6">
-          <cell r="O6">
-            <v>-7.6833333333333371</v>
-          </cell>
-          <cell r="P6">
-            <v>-1.3593749999999964</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="O7">
-            <v>9.6166666666666458</v>
-          </cell>
-          <cell r="P7">
-            <v>3.6093750000000036</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="O8">
-            <v>15.696666666666658</v>
-          </cell>
-          <cell r="P8">
-            <v>4.7468749999999851</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="O9">
-            <v>3.936666666666639</v>
-          </cell>
-          <cell r="P9">
-            <v>1.4708333333333385</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="O10">
-            <v>-2.5033333333333587</v>
-          </cell>
-          <cell r="P10">
-            <v>-2.6885416666666835</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="O11">
-            <v>-1.1233333333333348</v>
-          </cell>
-          <cell r="P11">
-            <v>7.1291666666666558</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="O12">
-            <v>-1.7233333333333576</v>
-          </cell>
-          <cell r="P12">
-            <v>-8.4677083333333343</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="O13">
-            <v>1.6966666666666583</v>
-          </cell>
-          <cell r="P13">
-            <v>-6.7749999999999844</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="O14">
-            <v>1.3166666666666345</v>
-          </cell>
-          <cell r="P14">
-            <v>5.7270833333333293</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="O15">
-            <v>-6.7833333333333314</v>
-          </cell>
-          <cell r="P15">
-            <v>3.5854166666666742</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="O16">
-            <v>-9.8433333333333621</v>
-          </cell>
-          <cell r="P16">
-            <v>-4.9499999999999993</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="O17">
-            <v>-2.6033333333333246</v>
-          </cell>
-          <cell r="P17">
-            <v>-4.2322916666666579</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="L36">
-            <v>142.74</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="L37">
-            <v>160.04</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="L38">
-            <v>166.12</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="L39">
-            <v>154.35999999999999</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="L40">
-            <v>147.91999999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="L41">
-            <v>149.30000000000001</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="L42">
-            <v>148.69999999999999</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="L43">
-            <v>152.12</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="L44">
-            <v>151.73999999999998</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="L45">
-            <v>143.64000000000001</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="L46">
-            <v>140.57999999999998</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="L47">
-            <v>147.82000000000002</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="L54">
-            <v>150.94620060006196</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="L55">
-            <v>153.7286556499775</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="L56">
-            <v>155.62545225442364</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="L57">
-            <v>156.128345295033</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="L58">
-            <v>155.10258498769502</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="L59">
-            <v>152.82302297838885</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="L60">
-            <v>149.90046606660474</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="L61">
-            <v>147.1180110166892</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="L62">
-            <v>145.22121441224306</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="L63">
-            <v>144.71832137163369</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="L64">
-            <v>145.74408167897167</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="L65">
-            <v>148.02364368827784</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,7 +426,7 @@
   <dimension ref="A1:AC66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+      <selection activeCell="R58" sqref="R58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +2600,7 @@
         <v>-2.3996896450555076</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -2860,7 +2627,7 @@
         <v>-2.3958333333333428</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2</v>
       </c>
@@ -2890,7 +2657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
@@ -2922,7 +2689,7 @@
         <v>32.820551661752333</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -2946,7 +2713,7 @@
         <v>-6.57083333333334</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5</v>
       </c>
@@ -2976,7 +2743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>6</v>
       </c>
@@ -3008,7 +2775,7 @@
         <v>-8.2062006000619476</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7</v>
       </c>
@@ -3032,7 +2799,7 @@
         <v>6.3113443500224946</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>8</v>
       </c>
@@ -3056,7 +2823,7 @@
         <v>10.494547745576369</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9</v>
       </c>
@@ -3080,7 +2847,7 @@
         <v>-1.768345295033015</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>10</v>
       </c>
@@ -3103,8 +2870,11 @@
         <f t="shared" si="19"/>
         <v>-7.1825849876950372</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>11</v>
       </c>
@@ -3128,7 +2898,7 @@
         <v>-3.5230229783888376</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>12</v>
       </c>
@@ -3152,7 +2922,7 @@
         <v>-1.2004660666047471</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L61">
         <f t="shared" si="18"/>
         <v>147.1180110166892</v>
@@ -3162,7 +2932,7 @@
         <v>5.0019889833108095</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L62">
         <f t="shared" si="18"/>
         <v>145.22121441224306</v>
@@ -3172,7 +2942,7 @@
         <v>6.5187855877569234</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L63">
         <f t="shared" si="18"/>
         <v>144.71832137163369</v>
@@ -3182,7 +2952,7 @@
         <v>-1.0783213716336775</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L64">
         <f t="shared" si="18"/>
         <v>145.74408167897167</v>

--- a/1 task.xlsx
+++ b/1 task.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -158,6 +161,2120 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$L$36:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>142.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>160.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>154.35999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>149.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>152.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>151.73999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>143.64000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140.57999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>147.82000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C65-4744-A74B-1BBB65482E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$L$54:$L$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>150.94620060006196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.7286556499775</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.62545225442364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.128345295033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155.10258498769502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>152.82302297838885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.90046606660474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.1180110166892</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145.22121441224306</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144.71832137163369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145.74408167897167</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>148.02364368827784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C65-4744-A74B-1BBB65482E8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="796018175"/>
+        <c:axId val="796018591"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="796018175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796018591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796018591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796018175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23003845058919031"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$O$6:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-7.6833333333333371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6166666666666458</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.696666666666658</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.936666666666639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5033333333333587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.1233333333333348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7233333333333576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6966666666666583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3166666666666345</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.7833333333333314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.8433333333333621</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.6033333333333246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-916C-4656-B33D-7F47B7B2527D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Лист1!$P$6:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-1.3593749999999964</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6093750000000036</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7468749999999851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4708333333333385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6885416666666835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1291666666666558</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.4677083333333343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.7749999999999844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7270833333333293</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5854166666666742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.2322916666666579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-916C-4656-B33D-7F47B7B2527D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1151188063"/>
+        <c:axId val="1151189727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1151188063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151189727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1151189727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151188063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>332814</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>464004</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="O6">
+            <v>-7.6833333333333371</v>
+          </cell>
+          <cell r="P6">
+            <v>-1.3593749999999964</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="O7">
+            <v>9.6166666666666458</v>
+          </cell>
+          <cell r="P7">
+            <v>3.6093750000000036</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="O8">
+            <v>15.696666666666658</v>
+          </cell>
+          <cell r="P8">
+            <v>4.7468749999999851</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="O9">
+            <v>3.936666666666639</v>
+          </cell>
+          <cell r="P9">
+            <v>1.4708333333333385</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="O10">
+            <v>-2.5033333333333587</v>
+          </cell>
+          <cell r="P10">
+            <v>-2.6885416666666835</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="O11">
+            <v>-1.1233333333333348</v>
+          </cell>
+          <cell r="P11">
+            <v>7.1291666666666558</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="O12">
+            <v>-1.7233333333333576</v>
+          </cell>
+          <cell r="P12">
+            <v>-8.4677083333333343</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="O13">
+            <v>1.6966666666666583</v>
+          </cell>
+          <cell r="P13">
+            <v>-6.7749999999999844</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="O14">
+            <v>1.3166666666666345</v>
+          </cell>
+          <cell r="P14">
+            <v>5.7270833333333293</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="O15">
+            <v>-6.7833333333333314</v>
+          </cell>
+          <cell r="P15">
+            <v>3.5854166666666742</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="O16">
+            <v>-9.8433333333333621</v>
+          </cell>
+          <cell r="P16">
+            <v>-4.9499999999999993</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="O17">
+            <v>-2.6033333333333246</v>
+          </cell>
+          <cell r="P17">
+            <v>-4.2322916666666579</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="L36">
+            <v>142.74</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="L37">
+            <v>160.04</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="L38">
+            <v>166.12</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="L39">
+            <v>154.35999999999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="L40">
+            <v>147.91999999999999</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="L41">
+            <v>149.30000000000001</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="L42">
+            <v>148.69999999999999</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="L43">
+            <v>152.12</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="L44">
+            <v>151.73999999999998</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="L45">
+            <v>143.64000000000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="L46">
+            <v>140.57999999999998</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="L47">
+            <v>147.82000000000002</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="L54">
+            <v>150.94620060006196</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="L55">
+            <v>153.7286556499775</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="L56">
+            <v>155.62545225442364</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="L57">
+            <v>156.128345295033</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="L58">
+            <v>155.10258498769502</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="L59">
+            <v>152.82302297838885</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="L60">
+            <v>149.90046606660474</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="L61">
+            <v>147.1180110166892</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="L62">
+            <v>145.22121441224306</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="L63">
+            <v>144.71832137163369</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="L64">
+            <v>145.74408167897167</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="L65">
+            <v>148.02364368827784</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,8 +2542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +4717,7 @@
         <v>-2.3996896450555076</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1995</v>
       </c>
@@ -2627,7 +4744,7 @@
         <v>-2.3958333333333428</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>2</v>
       </c>
@@ -2657,7 +4774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>3</v>
       </c>
@@ -2689,7 +4806,7 @@
         <v>32.820551661752333</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -2713,7 +4830,7 @@
         <v>-6.57083333333334</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>5</v>
       </c>
@@ -2743,7 +4860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>6</v>
       </c>
@@ -2775,7 +4892,7 @@
         <v>-8.2062006000619476</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>7</v>
       </c>
@@ -2799,7 +4916,7 @@
         <v>6.3113443500224946</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>8</v>
       </c>
@@ -2823,7 +4940,7 @@
         <v>10.494547745576369</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>9</v>
       </c>
@@ -2847,7 +4964,7 @@
         <v>-1.768345295033015</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>10</v>
       </c>
@@ -2870,11 +4987,8 @@
         <f t="shared" si="19"/>
         <v>-7.1825849876950372</v>
       </c>
-      <c r="R58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>11</v>
       </c>
@@ -2898,7 +5012,7 @@
         <v>-3.5230229783888376</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>12</v>
       </c>
@@ -2922,7 +5036,7 @@
         <v>-1.2004660666047471</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L61">
         <f t="shared" si="18"/>
         <v>147.1180110166892</v>
@@ -2932,7 +5046,7 @@
         <v>5.0019889833108095</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L62">
         <f t="shared" si="18"/>
         <v>145.22121441224306</v>
@@ -2942,7 +5056,7 @@
         <v>6.5187855877569234</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L63">
         <f t="shared" si="18"/>
         <v>144.71832137163369</v>
@@ -2952,7 +5066,7 @@
         <v>-1.0783213716336775</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L64">
         <f t="shared" si="18"/>
         <v>145.74408167897167</v>
@@ -2980,5 +5094,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>